--- a/biology/Biochimie/EC_3.4/EC_3.4.xlsx
+++ b/biology/Biochimie/EC_3.4/EC_3.4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe EC3.4 est un groupe d'enzymes appartenant à la famille des hydrolases. Leur rôle est de découper un polypeptide, d'où leur nom générique de peptidases. La réaction chimique qu'elles catalysent est :
 AA1-CO-NH-AA2 + H2O  
@@ -519,7 +531,9 @@
           <t>Classification des peptidases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sous-groupes EC3.4.1 à EC3.4.4 ont été supprimés et les enzymes autrefois répertoriées dans ces groupes réparties dans les groupes nouvellement créés (EC3.4.11 à EC3.4.24). La liste qui suit donne la correspondance entre l'ancienne numérotation et la nouvelle.
 Liste des enzymes des groupes EC3.4.1 à EC3.4.4
@@ -562,7 +576,43 @@
 EC 3.4.4.23 → EC 3.4.23.5
 EC 3.4.4.24 → EC 3.4.22.32 et EC 3.4.22.33
 EC 3.4.4.25 : supprimée
-EC 3.4.11 : Aminopeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EC 3.4.11 : Aminopeptidases</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.11
 EC 3.4.11.1 : leucyl-aminopeptidase
 EC 3.4.11.2 : alanyl-aminopeptidase membranaire
@@ -588,8 +638,43 @@
 EC 3.4.11.22 : aminopeptidase I
 EC 3.4.11.23 : aminopeptidase pepB
 EC 3.4.11.24 : aminopeptidase S
-EC 3.4.12
-Sous-groupe aujourd'hui disparu. La liste suivante donne la correspondance entre les anciens numéros et les nouveaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC 3.4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-groupe aujourd'hui disparu. La liste suivante donne la correspondance entre les anciens numéros et les nouveaux.
 Liste des enzymes du groupe EC3.4.12
 EC 3.4.12.1 → EC 3.4.16.1
 EC 3.4.12.2 → EC 3.4.17.1
@@ -604,7 +689,43 @@
 EC 3.4.12.11 → EC 3.4.17.6
 EC 3.4.12.12 → EC 3.4.16.1
 EC 3.4.12.13 : supprimée
-EC 3.4.13 : Dipeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC 3.4.13 : Dipeptidases</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.13
 EC 3.4.13.1 → EC 3.4.13.18
 EC 3.4.13.2 → EC 3.4.13.18
@@ -628,7 +749,43 @@
 EC 3.4.13.20 : β-Ala-His-dipeptidase
 EC 3.4.13.21 : dipeptidase E
 EC 3.4.13.22 : D-Ala-D-Ala dipeptidase
-EC 3.4.14 : Dipeptidyl-peptidases et tripeptidyl-peptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EC 3.4.14 : Dipeptidyl-peptidases et tripeptidyl-peptidases</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.14
 EC 3.4.14.1 : dipeptidyl-peptidase I
 EC 3.4.14.2 : dipeptidyl-peptidase II
@@ -642,7 +799,43 @@
 EC 3.4.14.10 : tripeptidyl-peptidase II
 EC 3.4.14.11 : Xaa-Pro-dipeptidyl-peptidase
 EC 3.4.14.12 : prolyltripeptidyl-aminopeptidase
-EC 3.4.15 : Peptidyl-dipeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EC 3.4.15 : Peptidyl-dipeptidases</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.15
 EC 3.4.15.1 : peptidyl-dipeptidase A
 EC 3.4.15.2 → EC 3.4.19.2
@@ -650,7 +843,43 @@
 EC 3.4.15.4 : peptidyl-dipeptidase B
 EC 3.4.15.5 : peptidyl-dipeptidase Dcp
 EC 3.4.15.6 : cyanophycinase
-EC 3.4.16 : Carboxypeptidases de type sérine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>EC 3.4.16 : Carboxypeptidases de type sérine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.16
 EC 3.4.16.1 : supprimée (incluse dans EC 3.4.16.5 et EC 3.4.16.6)
 EC 3.4.16.2 : Pro-Xaa-carboxypeptidase lysosomale
@@ -658,7 +887,43 @@
 EC 3.4.16.4 : D-Ala-D-Ala carboxypeptidase de type sérine
 EC 3.4.16.5 : carboxypeptidase C
 EC 3.4.16.6 : carboxypeptidase D
-EC 3.4.17 : Métallocarboxypeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>EC 3.4.17 : Métallocarboxypeptidases</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.17
 EC 3.4.17.1 : carboxypeptidase A
 EC 3.4.17.2 : carboxypeptidase B
@@ -683,10 +948,82 @@
 EC 3.4.17.21 : glutamate-carboxypeptidase II
 EC 3.4.17.22 : métallocarboxypeptidase D
 EC 3.4.17.23 : angiotensine-enzyme de conversion 2
-EC 3.4.18 : Carboxypeptidases de type cystéine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>EC 3.4.18 : Carboxypeptidases de type cystéine</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.18
 EC 3.4.18.1 : cathepsine X
-EC 3.4.19 : Oméga-peptidases (enzymes coupant au niveau du dernier acide aminé d'une chaîne peptidique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>EC 3.4.19 : Oméga-peptidases (enzymes coupant au niveau du dernier acide aminé d'une chaîne peptidique)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.19
 EC 3.4.19.1 : acylaminoacyl-peptidase
 EC 3.4.19.2 : peptidyl-glycinamidase
@@ -700,7 +1037,43 @@
 EC 3.4.19.10 → EC 3.5.1.28
 EC 3.4.19.11 : γ-D-glutamyl-méso-diaminopimélate-peptidase I
 EC 3.4.19.12 : ubiquitinyl-hydrolase 1
-EC 3.4.21 : Sérine-endopeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>EC 3.4.21 : Sérine-endopeptidases</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.21
 EC 3.4.21.1 : chymotrypsine
 EC 3.4.21.2 : chymotrypsine C
@@ -822,7 +1195,43 @@
 EC 3.4.21.118 : kallikréine 8
 EC 3.4.21.119 : kallikréine 13
 EC 3.4.21.120 : oviductine
-EC 3.4.22 : Cystéine-endopeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>EC 3.4.22 : Cystéine-endopeptidases</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.22
 EC 3.4.22.1 : cathepsine B
 EC 3.4.22.2 : papaïne
@@ -895,7 +1304,43 @@
 EC 3.4.22.69 : protéinase principale du coronavirus SARS
 EC 3.4.22.70 : sortase A
 EC 3.4.22.71 : sortase B
-EC 3.4.23 : Aspartate-endopeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>EC 3.4.23 : Aspartate-endopeptidases</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.23
 EC 3.4.23.1 : pepsine A
 EC 3.4.23.2 : pepsine B
@@ -948,7 +1393,43 @@
 EC 3.4.23.49 : omptine
 EC 3.4.23.50 : endopeptidase du rétrovirus humain endogène K
 EC 3.4.23.51 : HycI peptidase
-EC 3.4.24 : Métalloendopeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>EC 3.4.24 : Métalloendopeptidases</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.24
 EC 3.4.24.1 : atrolysine A
 EC 3.4.24.2 : supprimée
@@ -1037,12 +1518,83 @@
 EC 3.4.24.85 : S2P endopeptidase
 EC 3.4.24.86 : ADAM 17 endopeptidase
 EC 3.4.24.87 : ADAMTS13 endopeptidase
-EC 3.4.25 : Thréonine-endopeptidases
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>EC 3.4.25 : Thréonine-endopeptidases</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.4.25
 EC 3.4.25.1 : complexe protéasome-endopeptidase
 EC 3.4.25.2 : HslU—HslV peptidase
-EC 3.4.99 : Endopeptidases dont le mécanisme d'action est inconnu
-Dans ce sous-groupe sont placées les enzymes dont on ne connaît pas encore le mécanisme d'action. Dès que celui-ci est connu, l'enzyme est reclassée. La liste ci-après donne la nouvelle nomenclature donnée aux enzymes en attente. Actuellement, cette liste ne contient aucune enzyme en attente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EC_3.4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Classification des peptidases</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>EC 3.4.99 : Endopeptidases dont le mécanisme d'action est inconnu</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce sous-groupe sont placées les enzymes dont on ne connaît pas encore le mécanisme d'action. Dès que celui-ci est connu, l'enzyme est reclassée. La liste ci-après donne la nouvelle nomenclature donnée aux enzymes en attente. Actuellement, cette liste ne contient aucune enzyme en attente.
 Liste des enzymes du groupe EC3.4.99
 EC 3.4.99.1 → EC 3.4.23.28
 EC 3.4.99.2 : supprimée
